--- a/testdata/test1.xlsx
+++ b/testdata/test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nozomu-tanaka\develop\excelSource\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F53EAC-B570-43AA-8077-88595D115245}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364E599D-2F66-4C95-B5BB-8739F55B6BCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="264" yWindow="3396" windowWidth="19632" windowHeight="8964" xr2:uid="{AE1A49A2-01D0-4319-9EE3-00B6373663D7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -108,15 +108,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>devices/{result1.deviceToken}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>../testdata/input1.json</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>POST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>../testdata/expected1.json</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>devices/abcd1234</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>devices/${result1.deviceToken}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -503,7 +511,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -560,22 +568,19 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2">
         <v>201</v>
       </c>
       <c r="G2">
         <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
@@ -589,7 +594,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <v>200</v>
@@ -597,8 +602,11 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="J3" t="b">
-        <v>1</v>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
@@ -612,13 +620,10 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>204</v>
-      </c>
-      <c r="J4" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">

--- a/testdata/test1.xlsx
+++ b/testdata/test1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nozomu-tanaka\develop\excelSource\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ICF_AutoCapsule_disabled\workspace\experiment\excelSource\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364E599D-2F66-4C95-B5BB-8739F55B6BCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="264" yWindow="3396" windowWidth="19632" windowHeight="8964" xr2:uid="{AE1A49A2-01D0-4319-9EE3-00B6373663D7}"/>
+    <workbookView xWindow="270" yWindow="3390" windowWidth="19635" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -125,13 +124,17 @@
   </si>
   <si>
     <t>devices/${result1.deviceToken}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Headers</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -507,28 +510,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943FEE52-0B10-4C70-AA08-833D2964E6B7}">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" customWidth="1"/>
-    <col min="2" max="2" width="19.8984375" customWidth="1"/>
-    <col min="3" max="3" width="9.59765625" customWidth="1"/>
-    <col min="4" max="4" width="27.296875" customWidth="1"/>
-    <col min="5" max="5" width="30.3984375" customWidth="1"/>
-    <col min="6" max="6" width="7.5" customWidth="1"/>
-    <col min="7" max="7" width="6.3984375" customWidth="1"/>
-    <col min="8" max="8" width="27.8984375" customWidth="1"/>
-    <col min="9" max="9" width="10.796875" customWidth="1"/>
-    <col min="10" max="10" width="6.69921875" customWidth="1"/>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
+    <col min="4" max="4" width="27.25" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+    <col min="7" max="7" width="7.5" customWidth="1"/>
+    <col min="8" max="8" width="6.375" customWidth="1"/>
+    <col min="9" max="9" width="27.875" customWidth="1"/>
+    <col min="10" max="10" width="10.75" customWidth="1"/>
+    <col min="11" max="11" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -542,25 +546,28 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -573,17 +580,17 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>201</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -596,20 +603,20 @@
       <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>200</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -622,11 +629,11 @@
       <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
@@ -634,7 +641,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" xr:uid="{DC7F3335-B0EB-4F5E-A376-AD55F1B4C287}"/>
+    <hyperlink ref="C10" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
